--- a/graph_generation/results_prelim/hermes_llama2/level_8/k_0.xlsx
+++ b/graph_generation/results_prelim/hermes_llama2/level_8/k_0.xlsx
@@ -31,55 +31,56 @@
     <t>evaluator_partial_correctness</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-what is the least cost path from node A to node N? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N
- A 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 5 0 0 2 0 0 0 0 0 0 0 0
- C 0 0 0 2 0 0 3 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 3 0 4 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 2 0 0 0 0 0 0
- H 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 1 0 0 1 0 3 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 5 5 0
- L 0 0 0 0 0 0 0 3 0 0 0 0 0 4
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ G 0 0 0 0 0 5 0 0 0 0 2 0 0 0 0 0
+ H 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 3 0 0 5 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 3 0 0 0 0 4 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
-    <t>No possible path from A to N</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node N, we can use Dijkstra's algorithm. Here's the step-by-step process:
-1. Create a set of unvisited nodes and initialize the distance of the starting node (A) to 0 and the distance of all other nodes to infinity.
+    <t>No possible path from A to P</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm. Here's the step-by-step process:
+1. Create a set of unvisited nodes and initialize the distance to the starting node (A) to 0 and the distance to all other nodes to infinity.
 2. Select the node with the smallest distance (A) and mark it as visited.
-3. Update the distances of its neighbors (B, C, and E) by adding the edge weight to the current node's distance. If the new distance is smaller than the previous distance, update the distance.
-4. Repeat steps 2 and 3 until all nodes are visited or the target node (N) is visited.
-Following this process, we get the following distances:
-A: 0
-B: 2
-C: 2
-E: 4
-F: 5
-G: 7
-H: 7
-I: 8
-J: 8
-K: 12
-L: 12
-M: ∞
-N: ∞
-Since the target node (N) has an infinite distance, we cannot reach it directly from node A. Therefore, there is no least cost path from node A to node N.</t>
+3. Update the distances to its neighbors (B, C, and D) by adding the edge weights to the current distance. If the new distance is smaller than the previous distance, update the distance.
+4. Repeat steps 2 and 3 until all nodes are visited or the target node (P) is visited.
+Following this process, we get the following distances and visited nodes:
+1. Distance to A: 0, Visited nodes: A
+2. Distance to B: 3, Visited nodes: A, B
+3. Distance to C: 3, Visited nodes: A, B, C
+4. Distance to D: 3, Visited nodes: A, B, C, D
+5. Distance to E: 3, Visited nodes: A, B, C, D, E
+6. Distance to F: 7, Visited nodes: A, B, C, D, E, F
+7. Distance to G: 7, Visited nodes: A, B, C, D, E, F, G
+8. Distance to H: 9, Visited nodes: A, B, C, D, E, F, G, H
+9. Distance to I: 13, Visited nodes: A, B, C, D, E, F, G, H, I
+10. Distance to J: 17, Visited nodes: A, B, C, D, E, F, G, H, I, J
+11. Distance to K: 17, Visited nodes: A, B, C, D, E, F, G, H, I, J, K
+12. Distance to L: 18, Visited nodes: A, B, C, D, E, F, G, H, I, J, K, L
+13. Dist</t>
   </si>
   <si>
     <t>Wrong</t>
   </si>
   <si>
-    <t>1/1</t>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
